--- a/pred_ohlcv/54_21/2020-01-23 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BCD ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>-30481.75194970001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-30385.60554970001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-30385.60554970001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-30120.1156497</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-30120.1156497</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-31197.0122497</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-31845.98514970001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-31845.98514970001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-31845.98514970001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-31820.1656497</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-32756.88144970001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-32651.47104970001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-32651.47104970001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-32526.39384970001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-32534.1146497</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-32468.9492497</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-31428.9492497</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-31709.2785497</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-33945.17454970001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-33857.13864970001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-33519.43864970001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-32728.40780532001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-32968.68790532001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-32968.68790532001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-32959.68790532001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-33009.09330532001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-32229.56420532001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-33208.54920532001</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-34049.37800532002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-34049.37800532002</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-34451.36260532002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-34451.36260532002</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-33216.25330532002</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-30918.93961980002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-30930.30951980002</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-30856.90201980002</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-30884.19121980002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-32348.93921980002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-32096.13061980002</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-32910.86951980001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-32865.46951980001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-32865.46951980001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-32607.46591980001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-38342.42711980001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-38341.42711980001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-38712.05981980002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-38711.33911980002</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-37273.55681980002</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-37279.16661980002</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-38250.66461980002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-39228.31621980001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-51875.94141980002</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-51766.40301980002</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-74337.67602222001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-86571.16502222001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-86071.16512222002</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-89316.31942222003</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-89345.23372222003</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-89345.23372222003</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-103201.28722222</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-103001.28722222</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-107384.26587348</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-106749.38938779</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-120953.54803541</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-120925.96113541</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-124703.0482354101</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-122096.3443354101</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-121087.8147354101</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-121375.0928695201</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-121377.9991695201</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-121377.9991695201</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-121885.7369695201</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-121869.7369695201</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-121885.7369695201</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-121740.0493238401</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-122372.4094238401</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-92504.20199096011</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-92923.71229096012</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-93720.94099096012</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-135905.1283909602</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-143217.3520909602</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-143217.3520909602</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-144428.1860909601</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-144186.3992909601</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-137734.7814909602</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-138530.1955909602</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-138530.1955909602</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-138972.1953909601</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-138964.4953909601</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-138440.3953909601</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-137829.6203909601</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-136734.8151909601</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-136734.8151909601</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-135639.8494909601</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-134392.8494909601</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-132209.4562909601</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-132699.8021511501</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-132837.5069511501</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-132885.8572511501</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-133088.4814511501</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-133088.4814511501</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-136195.2201511501</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-136261.9588511501</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-137090.3564511501</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-138081.6306511501</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-136640.4069511501</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-137007.8061511501</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-141304.2545511501</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-141036.1741511501</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-145630.8392511501</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-146237.3610511501</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-146237.3610511501</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-145837.3610511501</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-145889.2655511501</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-146182.5064511501</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-144065.6748680401</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-160974.4653680402</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-174322.7420347702</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-173042.7420347702</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-179399.8883347702</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-199808.9892347702</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-214818.8004347701</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-215338.8004347701</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-220336.9348347702</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-218343.9080347702</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-218343.9080347702</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-213165.7592347702</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BCD ohlcv.xlsx
@@ -2056,7 +2056,7 @@
         <v>-31428.9492497</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-31709.2785497</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-33945.17454970001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-33857.13864970001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-33519.43864970001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-32728.40780532001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-32968.68790532001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-32968.68790532001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-32959.68790532001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-33009.09330532001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-32229.56420532001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-33208.54920532001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-34451.36260532002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-37273.55681980002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-37279.16661980002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-74337.67602222001</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-86571.16502222001</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-86071.16512222002</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-89316.31942222003</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-89345.23372222003</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-89345.23372222003</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-103201.28722222</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-103001.28722222</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-107384.26587348</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-106749.38938779</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-120953.54803541</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-120925.96113541</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-124703.0482354101</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-122096.3443354101</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-121087.8147354101</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-121375.0928695201</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-121377.9991695201</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-121377.9991695201</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-121885.7369695201</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-121869.7369695201</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-121885.7369695201</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-121740.0493238401</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-122372.4094238401</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-92504.20199096011</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-94822.30259096011</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-91956.49779096011</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-92923.71229096012</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-93720.94099096012</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-135905.1283909602</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-143217.3520909602</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-143217.3520909602</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-144428.1860909601</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-144186.3992909601</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-137734.7814909602</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-138530.1955909602</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-138530.1955909602</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-138972.1953909601</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-138964.4953909601</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-138440.3953909601</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-137829.6203909601</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-136734.8151909601</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-136734.8151909601</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-135639.8494909601</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-134392.8494909601</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-132209.4562909601</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-132699.8021511501</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-132837.5069511501</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-132885.8572511501</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-133088.4814511501</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-133088.4814511501</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-136195.2201511501</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-136261.9588511501</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-137090.3564511501</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-138081.6306511501</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-136640.4069511501</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-137007.8061511501</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-141304.2545511501</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-141036.1741511501</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-145630.8392511501</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-146237.3610511501</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-146237.3610511501</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-145837.3610511501</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-145889.2655511501</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-146182.5064511501</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-144065.6748680401</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-160974.4653680402</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-174322.7420347702</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-173042.7420347702</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-179399.8883347702</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-199808.9892347702</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-214818.8004347701</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-215338.8004347701</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-220336.9348347702</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-218343.9080347702</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-218343.9080347702</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
